--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,87 +49,102 @@
     <t>thin</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>however</t>
+    <t>pool</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
     <t>instead</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>junk</t>
+    <t>missing</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>guess</t>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>di</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
     <t>hard</t>
   </si>
   <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
-    <t>back</t>
-  </si>
-  <si>
     <t>money</t>
   </si>
   <si>
@@ -139,10 +154,10 @@
     <t>price</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>work</t>
+    <t>could</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>used</t>
@@ -151,33 +166,33 @@
     <t>5</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>much</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>toy</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -196,12 +211,12 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>classic</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>classic</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
@@ -223,28 +238,28 @@
     <t>friends</t>
   </si>
   <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
+    <t>game</t>
+  </si>
+  <si>
     <t>easy</t>
-  </si>
-  <si>
-    <t>game</t>
   </si>
   <si>
     <t>family</t>
@@ -611,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,10 +634,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -680,13 +695,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -698,10 +713,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K3">
         <v>0.8928571428571429</v>
@@ -751,16 +766,16 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K4">
-        <v>0.8888888888888888</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -772,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -780,13 +795,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7586206896551724</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -798,19 +813,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K5">
-        <v>0.8461538461538461</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -822,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -830,13 +845,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7183098591549296</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C6">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -848,19 +863,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K6">
-        <v>0.8172043010752689</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="L6">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M6">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -872,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -880,13 +895,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6827956989247311</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C7">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="D7">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -898,19 +913,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K7">
-        <v>0.71875</v>
+        <v>0.78125</v>
       </c>
       <c r="L7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -922,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -951,16 +966,16 @@
         <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K8">
-        <v>0.6521739130434783</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L8">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="M8">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -972,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -980,13 +995,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6351351351351351</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C9">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="D9">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -998,19 +1013,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K9">
-        <v>0.6226415094339622</v>
+        <v>0.6231884057971014</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1022,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1030,13 +1045,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6019417475728155</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="C10">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1048,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K10">
-        <v>0.563845050215208</v>
+        <v>0.5437589670014347</v>
       </c>
       <c r="L10">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="M10">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1072,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>304</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1080,13 +1095,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5833333333333334</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1098,19 +1113,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K11">
-        <v>0.4688796680497925</v>
+        <v>0.479253112033195</v>
       </c>
       <c r="L11">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M11">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1122,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1130,13 +1145,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5789473684210527</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1148,19 +1163,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K12">
-        <v>0.4565573770491803</v>
+        <v>0.4491803278688525</v>
       </c>
       <c r="L12">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="M12">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1172,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>663</v>
+        <v>672</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1180,13 +1195,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5546218487394958</v>
+        <v>0.6067961165048543</v>
       </c>
       <c r="C13">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="D13">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1198,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K13">
-        <v>0.3486238532110092</v>
+        <v>0.3577981651376147</v>
       </c>
       <c r="L13">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M13">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1222,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1230,13 +1245,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5454545454545454</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1248,19 +1263,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K14">
-        <v>0.3166666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L14">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M14">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1272,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1280,13 +1295,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5014492753623189</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C15">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1298,19 +1313,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K15">
-        <v>0.3012048192771085</v>
+        <v>0.3192771084337349</v>
       </c>
       <c r="L15">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M15">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1322,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1330,13 +1345,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4409448818897638</v>
+        <v>0.5625</v>
       </c>
       <c r="C16">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="D16">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1348,19 +1363,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K16">
-        <v>0.291005291005291</v>
+        <v>0.3121693121693122</v>
       </c>
       <c r="L16">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M16">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1372,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1380,13 +1395,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4337349397590362</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C17">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1398,19 +1413,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K17">
-        <v>0.2008032128514056</v>
+        <v>0.21875</v>
       </c>
       <c r="L17">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="M17">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1422,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>199</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1430,13 +1445,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4259259259259259</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="C18">
-        <v>23</v>
+        <v>175</v>
       </c>
       <c r="D18">
-        <v>23</v>
+        <v>175</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1448,19 +1463,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K18">
-        <v>0.1989247311827957</v>
+        <v>0.2027972027972028</v>
       </c>
       <c r="L18">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1472,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>149</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1480,13 +1495,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3981042654028436</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C19">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1498,19 +1513,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K19">
-        <v>0.1984126984126984</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="L19">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M19">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1522,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>101</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1530,13 +1545,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3894736842105263</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="C20">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D20">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1548,19 +1563,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K20">
-        <v>0.1796875</v>
+        <v>0.192</v>
       </c>
       <c r="L20">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M20">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1572,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1580,7 +1595,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3833333333333334</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C21">
         <v>23</v>
@@ -1598,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K21">
-        <v>0.1608391608391608</v>
+        <v>0.1686746987951807</v>
       </c>
       <c r="L21">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M21">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1622,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>120</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1630,13 +1645,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3809523809523809</v>
+        <v>0.4015748031496063</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1648,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K22">
-        <v>0.156140350877193</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L22">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M22">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="N22">
         <v>0.99</v>
@@ -1672,7 +1687,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1680,13 +1695,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3809523809523809</v>
+        <v>0.390625</v>
       </c>
       <c r="C23">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D23">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1698,31 +1713,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K23">
-        <v>0.09090909090909091</v>
+        <v>0.0792722547108512</v>
       </c>
       <c r="L23">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="M23">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>340</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1730,13 +1745,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.359375</v>
+        <v>0.375</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1748,31 +1763,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K24">
-        <v>0.07597402597402597</v>
+        <v>0.07219251336898395</v>
       </c>
       <c r="L24">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="M24">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="N24">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1423</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1780,13 +1795,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.359375</v>
+        <v>0.3696682464454976</v>
       </c>
       <c r="C25">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="D25">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1798,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="H25">
+        <v>133</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="K25">
-        <v>0.07242339832869081</v>
+        <v>0.06685236768802229</v>
       </c>
       <c r="L25">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M25">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1822,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1830,49 +1845,49 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3258426966292135</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C26">
+        <v>22</v>
+      </c>
+      <c r="D26">
+        <v>22</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>38</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K26">
+        <v>0.03728362183754994</v>
+      </c>
+      <c r="L26">
+        <v>28</v>
+      </c>
+      <c r="M26">
         <v>29</v>
       </c>
-      <c r="D26">
-        <v>29</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>60</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K26">
-        <v>0.04266666666666667</v>
-      </c>
-      <c r="L26">
-        <v>32</v>
-      </c>
-      <c r="M26">
-        <v>34</v>
-      </c>
       <c r="N26">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O26">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>718</v>
+        <v>723</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1880,13 +1895,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2821782178217822</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C27">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1898,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>145</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1906,13 +1921,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2422680412371134</v>
+        <v>0.3473684210526316</v>
       </c>
       <c r="C28">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D28">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1924,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>147</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1932,13 +1947,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2222222222222222</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="C29">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D29">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1950,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1958,13 +1973,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.195</v>
+        <v>0.301980198019802</v>
       </c>
       <c r="C30">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D30">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1976,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>161</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1984,13 +1999,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1920289855072464</v>
+        <v>0.2393162393162393</v>
       </c>
       <c r="C31">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D31">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2002,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>223</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2010,13 +2025,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1714285714285714</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="C32">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D32">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2028,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>116</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2036,13 +2051,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1708860759493671</v>
+        <v>0.2010309278350516</v>
       </c>
       <c r="C33">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D33">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2054,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>262</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2062,13 +2077,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1682242990654206</v>
+        <v>0.175</v>
       </c>
       <c r="C34">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D34">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2080,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2088,25 +2103,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1609195402298851</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="C35">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D35">
         <v>56</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>292</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2114,25 +2129,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1604754829123329</v>
+        <v>0.1711309523809524</v>
       </c>
       <c r="C36">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D36">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E36">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F36">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2140,13 +2155,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1582278481012658</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C37">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D37">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2158,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>266</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2166,13 +2181,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1371428571428571</v>
+        <v>0.1645569620253164</v>
       </c>
       <c r="C38">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D38">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2184,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>151</v>
+        <v>264</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2192,25 +2207,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1176470588235294</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="C39">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D39">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E39">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>165</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2218,25 +2233,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1167400881057269</v>
+        <v>0.1440922190201729</v>
       </c>
       <c r="C40">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D40">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>401</v>
+        <v>297</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2244,13 +2259,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1129032258064516</v>
+        <v>0.1401273885350318</v>
       </c>
       <c r="C41">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D41">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2262,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>220</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2270,25 +2285,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.09737827715355805</v>
+        <v>0.1280353200883002</v>
       </c>
       <c r="C42">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="D42">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>241</v>
+        <v>395</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2296,13 +2311,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.0821917808219178</v>
+        <v>0.1257142857142857</v>
       </c>
       <c r="C43">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D43">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2314,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>335</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2322,25 +2337,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.08169014084507042</v>
+        <v>0.1229946524064171</v>
       </c>
       <c r="C44">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D44">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>326</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2348,25 +2363,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.07589285714285714</v>
+        <v>0.1048387096774194</v>
       </c>
       <c r="C45">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D45">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E45">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>414</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2374,25 +2389,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.06930693069306931</v>
+        <v>0.1015037593984962</v>
       </c>
       <c r="C46">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D46">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E46">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F46">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>564</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2400,25 +2415,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.04900459418070444</v>
+        <v>0.08258928571428571</v>
       </c>
       <c r="C47">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D47">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E47">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="F47">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>621</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2426,25 +2441,155 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03703703703703703</v>
+        <v>0.07967032967032966</v>
       </c>
       <c r="C48">
         <v>29</v>
       </c>
       <c r="D48">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E48">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="F48">
-        <v>0.72</v>
+        <v>0.97</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>754</v>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.06765676567656766</v>
+      </c>
+      <c r="C49">
+        <v>41</v>
+      </c>
+      <c r="D49">
+        <v>43</v>
+      </c>
+      <c r="E49">
+        <v>0.05</v>
+      </c>
+      <c r="F49">
+        <v>0.95</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.06478873239436619</v>
+      </c>
+      <c r="C50">
+        <v>23</v>
+      </c>
+      <c r="D50">
+        <v>23</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0.05104408352668213</v>
+      </c>
+      <c r="C51">
+        <v>22</v>
+      </c>
+      <c r="D51">
+        <v>25</v>
+      </c>
+      <c r="E51">
+        <v>0.12</v>
+      </c>
+      <c r="F51">
+        <v>0.88</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.0457433290978399</v>
+      </c>
+      <c r="C52">
+        <v>36</v>
+      </c>
+      <c r="D52">
+        <v>43</v>
+      </c>
+      <c r="E52">
+        <v>0.16</v>
+      </c>
+      <c r="F52">
+        <v>0.84</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0.03522205206738132</v>
+      </c>
+      <c r="C53">
+        <v>23</v>
+      </c>
+      <c r="D53">
+        <v>25</v>
+      </c>
+      <c r="E53">
+        <v>0.08</v>
+      </c>
+      <c r="F53">
+        <v>0.92</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>630</v>
       </c>
     </row>
   </sheetData>
